--- a/data/pca/factorExposure/factorExposure_2011-03-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.0105472418970153</v>
+        <v>-0.01369840454040993</v>
       </c>
       <c r="C2">
-        <v>-0.00102026507013052</v>
+        <v>0.00692111256162231</v>
       </c>
       <c r="D2">
-        <v>-0.01728267984091159</v>
+        <v>0.004389144195995206</v>
       </c>
       <c r="E2">
-        <v>-0.01955400404110817</v>
+        <v>0.01035886929456106</v>
       </c>
       <c r="F2">
-        <v>-0.000138877542658985</v>
+        <v>0.002005913450511872</v>
       </c>
       <c r="G2">
-        <v>-0.02001107902397537</v>
+        <v>0.02297903349840004</v>
       </c>
       <c r="H2">
-        <v>0.04364410377618309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.01046326028419179</v>
+      </c>
+      <c r="I2">
+        <v>-0.003642613848128022</v>
+      </c>
+      <c r="J2">
+        <v>0.007580900767871784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1074924347862517</v>
+        <v>-0.1216372756895538</v>
       </c>
       <c r="C4">
-        <v>0.01916704391117446</v>
+        <v>0.05292896702075935</v>
       </c>
       <c r="D4">
-        <v>-0.07207293717040135</v>
+        <v>0.0118826937453171</v>
       </c>
       <c r="E4">
-        <v>-0.0285245874183625</v>
+        <v>0.004419388037129586</v>
       </c>
       <c r="F4">
-        <v>0.04729796095003225</v>
+        <v>0.006080887685959637</v>
       </c>
       <c r="G4">
-        <v>-0.02000598435664616</v>
+        <v>0.00496390835213867</v>
       </c>
       <c r="H4">
-        <v>-0.0269712895056543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.0563571780448499</v>
+      </c>
+      <c r="I4">
+        <v>0.14222595492431</v>
+      </c>
+      <c r="J4">
+        <v>0.04628357144388526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.127439723587077</v>
+        <v>-0.1224844061923762</v>
       </c>
       <c r="C6">
-        <v>0.02501350991474034</v>
+        <v>-0.004184383105961046</v>
       </c>
       <c r="D6">
-        <v>-0.006603749009207226</v>
+        <v>0.01324680507495508</v>
       </c>
       <c r="E6">
-        <v>-0.02133244912277313</v>
+        <v>0.01681896810640907</v>
       </c>
       <c r="F6">
-        <v>-0.1811567512216452</v>
+        <v>0.02464908304534224</v>
       </c>
       <c r="G6">
-        <v>0.1219886862064144</v>
+        <v>-0.04073935732736411</v>
       </c>
       <c r="H6">
-        <v>-0.2865183545364516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.0271191885983024</v>
+      </c>
+      <c r="I6">
+        <v>0.04192119835184688</v>
+      </c>
+      <c r="J6">
+        <v>-0.1904762445414001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08985873098197657</v>
+        <v>-0.0782258884319742</v>
       </c>
       <c r="C7">
-        <v>0.03532381292234388</v>
+        <v>0.04693082079766986</v>
       </c>
       <c r="D7">
-        <v>-0.03496882878261787</v>
+        <v>0.04289649750941532</v>
       </c>
       <c r="E7">
-        <v>-0.05058483390053006</v>
+        <v>0.04683487315305453</v>
       </c>
       <c r="F7">
-        <v>-0.001345401727215285</v>
+        <v>0.004425532270238016</v>
       </c>
       <c r="G7">
-        <v>0.002170550800925411</v>
+        <v>0.03820803796514229</v>
       </c>
       <c r="H7">
-        <v>-0.005701939687319689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.02909788447504099</v>
+      </c>
+      <c r="I7">
+        <v>0.04387421357722864</v>
+      </c>
+      <c r="J7">
+        <v>0.04949231124157746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04220865375419641</v>
+        <v>-0.05109899539717438</v>
       </c>
       <c r="C8">
-        <v>-0.03414977534489356</v>
+        <v>0.009989256682144858</v>
       </c>
       <c r="D8">
-        <v>-0.1252410624652165</v>
+        <v>0.008465364709879358</v>
       </c>
       <c r="E8">
-        <v>-0.07435249229549838</v>
+        <v>0.02014413564999575</v>
       </c>
       <c r="F8">
-        <v>0.03125145709744579</v>
+        <v>-0.002622327368688577</v>
       </c>
       <c r="G8">
-        <v>-0.133033777465072</v>
+        <v>0.001572386022680653</v>
       </c>
       <c r="H8">
-        <v>-0.06074796730674598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.06213034157273339</v>
+      </c>
+      <c r="I8">
+        <v>0.1046570203055993</v>
+      </c>
+      <c r="J8">
+        <v>-0.004339682945838788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09503826258789096</v>
+        <v>-0.09469797967787706</v>
       </c>
       <c r="C9">
-        <v>0.03836318754414296</v>
+        <v>0.05630970768790847</v>
       </c>
       <c r="D9">
-        <v>-0.06519139666150928</v>
+        <v>-0.002191416915089243</v>
       </c>
       <c r="E9">
-        <v>-0.03135241754475526</v>
+        <v>0.01543554821182947</v>
       </c>
       <c r="F9">
-        <v>0.02519928500181094</v>
+        <v>-0.003294389455943762</v>
       </c>
       <c r="G9">
-        <v>-0.06411687360094583</v>
+        <v>0.01935751044580268</v>
       </c>
       <c r="H9">
-        <v>-0.0423105207264397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.06866831214761553</v>
+      </c>
+      <c r="I9">
+        <v>0.118387447433661</v>
+      </c>
+      <c r="J9">
+        <v>0.01852754459171113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03856531664611976</v>
+        <v>-0.07375636971314212</v>
       </c>
       <c r="C10">
-        <v>-0.1726609240604166</v>
+        <v>-0.1866999752484492</v>
       </c>
       <c r="D10">
-        <v>-0.05175027500672814</v>
+        <v>-0.02079387956036091</v>
       </c>
       <c r="E10">
-        <v>-0.09600963326305721</v>
+        <v>-0.003659722966513574</v>
       </c>
       <c r="F10">
-        <v>-0.01064566874497428</v>
+        <v>0.009210910259339971</v>
       </c>
       <c r="G10">
-        <v>0.01900675913704214</v>
+        <v>0.06406550228565853</v>
       </c>
       <c r="H10">
-        <v>-0.02734192963467384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.008565907013821402</v>
+      </c>
+      <c r="I10">
+        <v>0.01926894251303583</v>
+      </c>
+      <c r="J10">
+        <v>0.02047591938016868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07793864671987473</v>
+        <v>-0.08398882281031118</v>
       </c>
       <c r="C11">
-        <v>0.0612437319501862</v>
+        <v>0.05657424555731861</v>
       </c>
       <c r="D11">
-        <v>0.003804510600481299</v>
+        <v>0.02842493828978385</v>
       </c>
       <c r="E11">
-        <v>-0.0274667842328237</v>
+        <v>0.03437814566696902</v>
       </c>
       <c r="F11">
-        <v>0.002232401559011395</v>
+        <v>-0.03714155713607332</v>
       </c>
       <c r="G11">
-        <v>-0.1576112706911947</v>
+        <v>-0.002012242318446779</v>
       </c>
       <c r="H11">
-        <v>0.05843946931542699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.07441045661473294</v>
+      </c>
+      <c r="I11">
+        <v>0.1027274634494306</v>
+      </c>
+      <c r="J11">
+        <v>0.007540393393089594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07373585746885708</v>
+        <v>-0.08746022961100672</v>
       </c>
       <c r="C12">
-        <v>0.04142635450699597</v>
+        <v>0.06376775776874775</v>
       </c>
       <c r="D12">
-        <v>-0.03178741121944292</v>
+        <v>0.02969886565848257</v>
       </c>
       <c r="E12">
-        <v>-0.007917932310796981</v>
+        <v>0.03826220770025417</v>
       </c>
       <c r="F12">
-        <v>-0.01868399938994978</v>
+        <v>-0.0596030242922356</v>
       </c>
       <c r="G12">
-        <v>-0.1468650164957327</v>
+        <v>0.01070629285053742</v>
       </c>
       <c r="H12">
-        <v>0.03171442990905281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.08417152803138078</v>
+      </c>
+      <c r="I12">
+        <v>0.08343497478377411</v>
+      </c>
+      <c r="J12">
+        <v>-0.01767569930914988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.0628397596158511</v>
+        <v>-0.0478156096341005</v>
       </c>
       <c r="C13">
-        <v>0.006800022047306511</v>
+        <v>0.03400891398164679</v>
       </c>
       <c r="D13">
-        <v>-0.02642517531688115</v>
+        <v>-0.02460160692117598</v>
       </c>
       <c r="E13">
-        <v>-0.002889132840683187</v>
+        <v>0.01265700847277808</v>
       </c>
       <c r="F13">
-        <v>0.05558370855132846</v>
+        <v>0.02234151276401528</v>
       </c>
       <c r="G13">
-        <v>-0.06605413915745627</v>
+        <v>0.01317839392933295</v>
       </c>
       <c r="H13">
-        <v>0.0006257903595895684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.06215025410022405</v>
+      </c>
+      <c r="I13">
+        <v>0.05428988217831763</v>
+      </c>
+      <c r="J13">
+        <v>-0.0255770971729933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05356625229427532</v>
+        <v>-0.03443993547741929</v>
       </c>
       <c r="C14">
-        <v>0.007500727686486581</v>
+        <v>0.007841744019027831</v>
       </c>
       <c r="D14">
-        <v>-0.04742312447709247</v>
+        <v>0.009777353507232996</v>
       </c>
       <c r="E14">
-        <v>-0.04580818866525124</v>
+        <v>0.002202297307141217</v>
       </c>
       <c r="F14">
-        <v>0.03499413753749536</v>
+        <v>-0.01400906096568112</v>
       </c>
       <c r="G14">
-        <v>-0.02330910970869817</v>
+        <v>0.008886047929579954</v>
       </c>
       <c r="H14">
-        <v>-0.1440052460826994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.04531244265132974</v>
+      </c>
+      <c r="I14">
+        <v>0.08140574349431196</v>
+      </c>
+      <c r="J14">
+        <v>0.07342049415533906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0374105293252632</v>
+        <v>-0.02772077816221406</v>
       </c>
       <c r="C15">
-        <v>-0.01144642052212534</v>
+        <v>0.01242306630755237</v>
       </c>
       <c r="D15">
-        <v>-0.009762744808271225</v>
+        <v>-0.01092398492750309</v>
       </c>
       <c r="E15">
-        <v>-0.01509475192815356</v>
+        <v>0.01468291384712604</v>
       </c>
       <c r="F15">
-        <v>0.00785594248999646</v>
+        <v>0.03406502085513127</v>
       </c>
       <c r="G15">
-        <v>-0.007025398084223708</v>
+        <v>0.01005172870933613</v>
       </c>
       <c r="H15">
-        <v>-0.0660177026112122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.03492578341253668</v>
+      </c>
+      <c r="I15">
+        <v>0.02030882015133137</v>
+      </c>
+      <c r="J15">
+        <v>0.01898748836536395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08239155259222956</v>
+        <v>-0.08953867705799401</v>
       </c>
       <c r="C16">
-        <v>0.06862374872922887</v>
+        <v>0.06047673467920234</v>
       </c>
       <c r="D16">
-        <v>-0.03441120016105838</v>
+        <v>0.04131918576166901</v>
       </c>
       <c r="E16">
-        <v>-0.006687142046191321</v>
+        <v>0.04627384349932073</v>
       </c>
       <c r="F16">
-        <v>0.03902281721985833</v>
+        <v>-0.04189551601291561</v>
       </c>
       <c r="G16">
-        <v>-0.1164731745496458</v>
+        <v>0.0007737984614563346</v>
       </c>
       <c r="H16">
-        <v>0.05962424054175366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.09547518691709747</v>
+      </c>
+      <c r="I16">
+        <v>0.08977560309615812</v>
+      </c>
+      <c r="J16">
+        <v>0.01878132492460676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.0561155726804297</v>
+        <v>-0.05185104207976591</v>
       </c>
       <c r="C20">
-        <v>0.0187784023267902</v>
+        <v>0.02444833479125651</v>
       </c>
       <c r="D20">
-        <v>-0.0198938748218508</v>
+        <v>0.03336195164094196</v>
       </c>
       <c r="E20">
-        <v>-0.01410760636869849</v>
+        <v>0.00345111632037382</v>
       </c>
       <c r="F20">
-        <v>0.0006770744890457148</v>
+        <v>0.01245312643984765</v>
       </c>
       <c r="G20">
-        <v>-0.1060157355395517</v>
+        <v>0.005202513674201599</v>
       </c>
       <c r="H20">
-        <v>0.003360560196513492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.04168505427318359</v>
+      </c>
+      <c r="I20">
+        <v>0.05068789694155447</v>
+      </c>
+      <c r="J20">
+        <v>0.02577165802876259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02811883489919679</v>
+        <v>-0.024370527888089</v>
       </c>
       <c r="C21">
-        <v>0.03842131845192984</v>
+        <v>0.005615178284210087</v>
       </c>
       <c r="D21">
-        <v>-0.01478108858506524</v>
+        <v>0.01286459283587786</v>
       </c>
       <c r="E21">
-        <v>-0.01884816710738104</v>
+        <v>-0.03211741144598219</v>
       </c>
       <c r="F21">
-        <v>-0.07066347354986477</v>
+        <v>0.008287044166945748</v>
       </c>
       <c r="G21">
-        <v>0.1022780996343032</v>
+        <v>-0.02849218369892909</v>
       </c>
       <c r="H21">
-        <v>-0.09514245865211576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.03295499207701469</v>
+      </c>
+      <c r="I21">
+        <v>0.09379520838520942</v>
+      </c>
+      <c r="J21">
+        <v>0.0004006350332203016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04112771200148462</v>
+        <v>-0.03392777057863743</v>
       </c>
       <c r="C22">
-        <v>0.01915163940311258</v>
+        <v>-0.01268221936105878</v>
       </c>
       <c r="D22">
-        <v>-0.5113502898524663</v>
+        <v>0.00933374316992738</v>
       </c>
       <c r="E22">
-        <v>0.2464567825456513</v>
+        <v>0.1361769745276958</v>
       </c>
       <c r="F22">
-        <v>0.1066005273116444</v>
+        <v>0.6169842684850572</v>
       </c>
       <c r="G22">
-        <v>0.3099748270165859</v>
+        <v>0.08957373530033484</v>
       </c>
       <c r="H22">
-        <v>0.1119440851298191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1796645295444849</v>
+      </c>
+      <c r="I22">
+        <v>-0.1303890907609754</v>
+      </c>
+      <c r="J22">
+        <v>-0.01412225788294492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.0412638572918537</v>
+        <v>-0.03410665636253092</v>
       </c>
       <c r="C23">
-        <v>0.01955162390213594</v>
+        <v>-0.01238931211782092</v>
       </c>
       <c r="D23">
-        <v>-0.5110177445292385</v>
+        <v>0.009797611701505556</v>
       </c>
       <c r="E23">
-        <v>0.2439581567218012</v>
+        <v>0.1379342077727073</v>
       </c>
       <c r="F23">
-        <v>0.1079384845295175</v>
+        <v>0.6188434748703958</v>
       </c>
       <c r="G23">
-        <v>0.3108884851189923</v>
+        <v>0.08941114762191085</v>
       </c>
       <c r="H23">
-        <v>0.1112466297517637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1810259748769762</v>
+      </c>
+      <c r="I23">
+        <v>-0.1271947557720611</v>
+      </c>
+      <c r="J23">
+        <v>-0.01347456494486259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08630512640388631</v>
+        <v>-0.09423858367133074</v>
       </c>
       <c r="C24">
-        <v>0.04861563854925327</v>
+        <v>0.05792371851781385</v>
       </c>
       <c r="D24">
-        <v>-0.03951217459321275</v>
+        <v>0.03735508963418557</v>
       </c>
       <c r="E24">
-        <v>-0.02848443401607581</v>
+        <v>0.03239501621142547</v>
       </c>
       <c r="F24">
-        <v>-0.0002968225384942939</v>
+        <v>-0.03979617481519213</v>
       </c>
       <c r="G24">
-        <v>-0.1239824063720821</v>
+        <v>0.01691959902941528</v>
       </c>
       <c r="H24">
-        <v>0.02903918355250414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.09725154545121728</v>
+      </c>
+      <c r="I24">
+        <v>0.08273742081067273</v>
+      </c>
+      <c r="J24">
+        <v>-0.0005356704933231485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07780967904226975</v>
+        <v>-0.09275342404356059</v>
       </c>
       <c r="C25">
-        <v>0.02429391695910497</v>
+        <v>0.04095215885168107</v>
       </c>
       <c r="D25">
-        <v>-0.03602896885533051</v>
+        <v>0.02801273073624761</v>
       </c>
       <c r="E25">
-        <v>-0.0166128690122122</v>
+        <v>0.03384318478955359</v>
       </c>
       <c r="F25">
-        <v>-0.01815253639537542</v>
+        <v>-0.06506427070369158</v>
       </c>
       <c r="G25">
-        <v>-0.1214038883915786</v>
+        <v>0.01416783745360296</v>
       </c>
       <c r="H25">
-        <v>0.02897161460715966</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09413476866149953</v>
+      </c>
+      <c r="I25">
+        <v>0.07911315969873997</v>
+      </c>
+      <c r="J25">
+        <v>0.02086653367649557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05191218641770353</v>
+        <v>-0.04088466469467944</v>
       </c>
       <c r="C26">
-        <v>0.02250559133991702</v>
+        <v>-0.0120297105281396</v>
       </c>
       <c r="D26">
-        <v>-0.02409198301149029</v>
+        <v>0.0219635909057876</v>
       </c>
       <c r="E26">
-        <v>-0.04680306054097484</v>
+        <v>-0.001091987515399444</v>
       </c>
       <c r="F26">
-        <v>0.03971330660535092</v>
+        <v>0.004323028006842914</v>
       </c>
       <c r="G26">
-        <v>-0.0573665485692319</v>
+        <v>-0.01809091357221185</v>
       </c>
       <c r="H26">
-        <v>-0.0744054143384959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.06427089117130372</v>
+      </c>
+      <c r="I26">
+        <v>0.03692566660355569</v>
+      </c>
+      <c r="J26">
+        <v>0.04334127811126101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06038408217758446</v>
+        <v>-0.08148835232128698</v>
       </c>
       <c r="C28">
-        <v>-0.3064244301830756</v>
+        <v>-0.2999700708175623</v>
       </c>
       <c r="D28">
-        <v>0.01075703484470098</v>
+        <v>-0.1045896003388834</v>
       </c>
       <c r="E28">
-        <v>-0.02918485695090563</v>
+        <v>0.01503874029451309</v>
       </c>
       <c r="F28">
-        <v>-0.04744411350353798</v>
+        <v>-0.02948204456724271</v>
       </c>
       <c r="G28">
-        <v>0.0183183957724029</v>
+        <v>0.002965872577069441</v>
       </c>
       <c r="H28">
-        <v>0.06124679888210489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.04379452694413172</v>
+      </c>
+      <c r="I28">
+        <v>0.03940480171817381</v>
+      </c>
+      <c r="J28">
+        <v>-0.01296199581648263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05986830224234092</v>
+        <v>-0.03578313768719926</v>
       </c>
       <c r="C29">
-        <v>0.0004469350272143759</v>
+        <v>0.009898652662677832</v>
       </c>
       <c r="D29">
-        <v>-0.04937013455856053</v>
+        <v>-0.004376812781184841</v>
       </c>
       <c r="E29">
-        <v>-0.02070855946946944</v>
+        <v>0.01018803419269299</v>
       </c>
       <c r="F29">
-        <v>0.03859570804438694</v>
+        <v>-0.0184954029431914</v>
       </c>
       <c r="G29">
-        <v>-0.03355119258807908</v>
+        <v>0.02821506780318859</v>
       </c>
       <c r="H29">
-        <v>-0.08739063852410109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.08092932664197719</v>
+      </c>
+      <c r="I29">
+        <v>0.06983326779679272</v>
+      </c>
+      <c r="J29">
+        <v>0.06225654982317533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1164524235815243</v>
+        <v>-0.1179002631790388</v>
       </c>
       <c r="C30">
-        <v>-0.02651441760221118</v>
+        <v>0.07334401514898946</v>
       </c>
       <c r="D30">
-        <v>-0.2271277659199452</v>
+        <v>-0.007322733466397586</v>
       </c>
       <c r="E30">
-        <v>0.003557016487463167</v>
+        <v>0.04095268494260988</v>
       </c>
       <c r="F30">
-        <v>-0.1098101217635084</v>
+        <v>-0.01430481746293878</v>
       </c>
       <c r="G30">
-        <v>-0.1586222363568775</v>
+        <v>-0.02980273676054872</v>
       </c>
       <c r="H30">
-        <v>0.03376045696925341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1405717872821262</v>
+      </c>
+      <c r="I30">
+        <v>0.07732411757349734</v>
+      </c>
+      <c r="J30">
+        <v>-0.2963134520049333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.0563247293458229</v>
+        <v>-0.03555283888027866</v>
       </c>
       <c r="C31">
-        <v>0.02167155033538663</v>
+        <v>0.01976553854496041</v>
       </c>
       <c r="D31">
-        <v>-0.00329629028688299</v>
+        <v>0.02120757545851074</v>
       </c>
       <c r="E31">
-        <v>0.02080643957773108</v>
+        <v>0.02119893122564427</v>
       </c>
       <c r="F31">
-        <v>0.03679066230992063</v>
+        <v>0.0005131358616238213</v>
       </c>
       <c r="G31">
-        <v>-0.01173328576850174</v>
+        <v>0.003599878314477972</v>
       </c>
       <c r="H31">
-        <v>-0.0202006693025748</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.01766397127709296</v>
+      </c>
+      <c r="I31">
+        <v>0.03933520107646817</v>
+      </c>
+      <c r="J31">
+        <v>0.06034706703814331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03443714465010925</v>
+        <v>-0.05517762406920235</v>
       </c>
       <c r="C32">
-        <v>-0.01148867582263138</v>
+        <v>0.008294873954216526</v>
       </c>
       <c r="D32">
-        <v>-0.09186929124154672</v>
+        <v>0.02203189028346583</v>
       </c>
       <c r="E32">
-        <v>0.05787387072234161</v>
+        <v>-0.001631825731286334</v>
       </c>
       <c r="F32">
-        <v>0.1155443918601263</v>
+        <v>-0.04704394208642056</v>
       </c>
       <c r="G32">
-        <v>-0.02196899789447899</v>
+        <v>-0.04263210760684807</v>
       </c>
       <c r="H32">
-        <v>-0.001398682477743747</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.05384715007920627</v>
+      </c>
+      <c r="I32">
+        <v>0.02977287534145726</v>
+      </c>
+      <c r="J32">
+        <v>-0.005418880065740224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1134212878475213</v>
+        <v>-0.1065736921045503</v>
       </c>
       <c r="C33">
-        <v>0.01494105059003577</v>
+        <v>0.05964009928400993</v>
       </c>
       <c r="D33">
-        <v>-0.01067158619444781</v>
+        <v>0.001814333222054423</v>
       </c>
       <c r="E33">
-        <v>0.03291923504801547</v>
+        <v>0.0791352835706218</v>
       </c>
       <c r="F33">
-        <v>0.01976399160267106</v>
+        <v>-0.03903266882387025</v>
       </c>
       <c r="G33">
-        <v>-0.07247538404469933</v>
+        <v>0.001148424955525777</v>
       </c>
       <c r="H33">
-        <v>-0.06541401705973694</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.07095382451879773</v>
+      </c>
+      <c r="I33">
+        <v>0.05485379594881554</v>
+      </c>
+      <c r="J33">
+        <v>0.02864141441499728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06895987982766436</v>
+        <v>-0.08281255036017027</v>
       </c>
       <c r="C34">
-        <v>0.04306086747888999</v>
+        <v>0.05101652180590095</v>
       </c>
       <c r="D34">
-        <v>-0.01239149703229087</v>
+        <v>0.03544348602580492</v>
       </c>
       <c r="E34">
-        <v>0.001480422696987102</v>
+        <v>0.03776088827489584</v>
       </c>
       <c r="F34">
-        <v>0.02369618742505033</v>
+        <v>-0.04526655418637889</v>
       </c>
       <c r="G34">
-        <v>-0.09811951129262694</v>
+        <v>0.008746421812397714</v>
       </c>
       <c r="H34">
-        <v>0.02249407812273543</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1037709190657628</v>
+      </c>
+      <c r="I34">
+        <v>0.06989411681433931</v>
+      </c>
+      <c r="J34">
+        <v>0.02294517222240714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04326270571589369</v>
+        <v>-0.02128559229683553</v>
       </c>
       <c r="C35">
-        <v>0.008283694086946992</v>
+        <v>0.01574670329779854</v>
       </c>
       <c r="D35">
-        <v>0.003359123665196279</v>
+        <v>-0.004928323804147885</v>
       </c>
       <c r="E35">
-        <v>0.01040587505094245</v>
+        <v>0.006950352128376457</v>
       </c>
       <c r="F35">
-        <v>-0.0537098828443445</v>
+        <v>-0.008470266034886051</v>
       </c>
       <c r="G35">
-        <v>-0.04283254237078016</v>
+        <v>0.008237654637061134</v>
       </c>
       <c r="H35">
-        <v>0.02201298019958167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.05163349040920266</v>
+      </c>
+      <c r="I35">
+        <v>0.03424253995553032</v>
+      </c>
+      <c r="J35">
+        <v>0.04327460746488528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03903664500028964</v>
+        <v>-0.02875070302823991</v>
       </c>
       <c r="C36">
-        <v>0.0003584243661985485</v>
+        <v>0.0044578718233502</v>
       </c>
       <c r="D36">
-        <v>-0.04265038010062236</v>
+        <v>-0.007011565037126539</v>
       </c>
       <c r="E36">
-        <v>-0.01095022647641356</v>
+        <v>0.00391723643048423</v>
       </c>
       <c r="F36">
-        <v>0.001789113937842767</v>
+        <v>0.009253673235087325</v>
       </c>
       <c r="G36">
-        <v>-0.05575358839738569</v>
+        <v>-0.0134906525896002</v>
       </c>
       <c r="H36">
-        <v>-0.0426231874161425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.0416806475649379</v>
+      </c>
+      <c r="I36">
+        <v>0.05127286228391642</v>
+      </c>
+      <c r="J36">
+        <v>0.01350094399516374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05442646500218494</v>
+        <v>-0.018657842177927</v>
       </c>
       <c r="C38">
-        <v>0.01596224466934991</v>
+        <v>0.0102114384421236</v>
       </c>
       <c r="D38">
-        <v>-0.01342428730631624</v>
+        <v>0.009628143845979353</v>
       </c>
       <c r="E38">
-        <v>-0.008100010453428433</v>
+        <v>0.01531541620175255</v>
       </c>
       <c r="F38">
-        <v>0.02913566039825575</v>
+        <v>0.01834230507700227</v>
       </c>
       <c r="G38">
-        <v>-0.06004150640821987</v>
+        <v>0.01654974267069368</v>
       </c>
       <c r="H38">
-        <v>0.01154717437249004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.01186147679777939</v>
+      </c>
+      <c r="I38">
+        <v>-0.03792334412473922</v>
+      </c>
+      <c r="J38">
+        <v>0.008765364495025324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1069733084950582</v>
+        <v>-0.1356230265694885</v>
       </c>
       <c r="C39">
-        <v>0.04073889964576046</v>
+        <v>0.09358060371807241</v>
       </c>
       <c r="D39">
-        <v>-0.0703230297532056</v>
+        <v>0.02718800260416009</v>
       </c>
       <c r="E39">
-        <v>-0.00379562868509237</v>
+        <v>0.04866406510378324</v>
       </c>
       <c r="F39">
-        <v>0.001567153322611495</v>
+        <v>-0.1277154966458406</v>
       </c>
       <c r="G39">
-        <v>-0.1449494659858406</v>
+        <v>0.0172307858429928</v>
       </c>
       <c r="H39">
-        <v>0.1152341906648834</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1482181203831651</v>
+      </c>
+      <c r="I39">
+        <v>0.05089756669363748</v>
+      </c>
+      <c r="J39">
+        <v>0.01855742889490308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04780733108585153</v>
+        <v>-0.01787424041003139</v>
       </c>
       <c r="C40">
-        <v>0.02394624878145979</v>
+        <v>0.02330260078123889</v>
       </c>
       <c r="D40">
-        <v>-0.07971575151527253</v>
+        <v>0.01889464251498498</v>
       </c>
       <c r="E40">
-        <v>0.03809257052944305</v>
+        <v>-0.0006788044677687289</v>
       </c>
       <c r="F40">
-        <v>-0.04591123497693979</v>
+        <v>0.06536036607620758</v>
       </c>
       <c r="G40">
-        <v>-0.2851403321850544</v>
+        <v>0.006425840006708931</v>
       </c>
       <c r="H40">
-        <v>0.07328458936558929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.06263019938691373</v>
+      </c>
+      <c r="I40">
+        <v>0.07591204705969384</v>
+      </c>
+      <c r="J40">
+        <v>-0.03905885038090552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04870084906660587</v>
+        <v>-0.026765536360479</v>
       </c>
       <c r="C41">
-        <v>0.02840563822212788</v>
+        <v>-0.001288925537311447</v>
       </c>
       <c r="D41">
-        <v>0.01346813542194439</v>
+        <v>0.03278570087208248</v>
       </c>
       <c r="E41">
-        <v>-0.008426998917195378</v>
+        <v>0.006374325403854144</v>
       </c>
       <c r="F41">
-        <v>0.03163215127054859</v>
+        <v>-0.01299880555141893</v>
       </c>
       <c r="G41">
-        <v>-0.05802562917536984</v>
+        <v>0.009900736488320738</v>
       </c>
       <c r="H41">
-        <v>0.02522570137789129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.0133674978247724</v>
+      </c>
+      <c r="I41">
+        <v>0.01675558593273804</v>
+      </c>
+      <c r="J41">
+        <v>0.03475068483773129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07514894653386006</v>
+        <v>-0.04066217851889</v>
       </c>
       <c r="C43">
-        <v>0.02600609874605658</v>
+        <v>-7.200932487435034e-05</v>
       </c>
       <c r="D43">
-        <v>-0.02807347173037874</v>
+        <v>0.03978393496525742</v>
       </c>
       <c r="E43">
-        <v>-0.007779646441422869</v>
+        <v>0.03695287482851986</v>
       </c>
       <c r="F43">
-        <v>0.02800429955275725</v>
+        <v>0.0005527911911740495</v>
       </c>
       <c r="G43">
-        <v>-0.009488035240312435</v>
+        <v>0.001834648330591639</v>
       </c>
       <c r="H43">
-        <v>0.02384264513318851</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01790068635299016</v>
+      </c>
+      <c r="I43">
+        <v>0.02593111080648093</v>
+      </c>
+      <c r="J43">
+        <v>0.05344726961808294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08013082551777025</v>
+        <v>-0.1249075542133229</v>
       </c>
       <c r="C44">
-        <v>0.009813720359435105</v>
+        <v>0.09467157915912064</v>
       </c>
       <c r="D44">
-        <v>-0.07834652714957446</v>
+        <v>-0.001266187031524888</v>
       </c>
       <c r="E44">
-        <v>-0.08560729524780883</v>
+        <v>0.04393253439735046</v>
       </c>
       <c r="F44">
-        <v>0.07236372906006193</v>
+        <v>0.07260563181684469</v>
       </c>
       <c r="G44">
-        <v>-0.08731396840959832</v>
+        <v>0.0992715515344219</v>
       </c>
       <c r="H44">
-        <v>0.009793792343765888</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.1792168306346844</v>
+      </c>
+      <c r="I44">
+        <v>0.08988610191487451</v>
+      </c>
+      <c r="J44">
+        <v>-0.1505520296782214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05382023818948779</v>
+        <v>-0.02428161632239128</v>
       </c>
       <c r="C46">
-        <v>0.03781146700296197</v>
+        <v>-0.004116640931303377</v>
       </c>
       <c r="D46">
-        <v>-0.04950766640233182</v>
+        <v>0.0244247471372947</v>
       </c>
       <c r="E46">
-        <v>0.005659628807130988</v>
+        <v>0.03395723171616406</v>
       </c>
       <c r="F46">
-        <v>0.02246297039605219</v>
+        <v>0.02833626864325308</v>
       </c>
       <c r="G46">
-        <v>-0.01752171670663653</v>
+        <v>0.0218929505342924</v>
       </c>
       <c r="H46">
-        <v>-0.086761071992037</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05443961358532472</v>
+      </c>
+      <c r="I46">
+        <v>0.04363167819820444</v>
+      </c>
+      <c r="J46">
+        <v>0.05947826432462755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05000521174004303</v>
+        <v>-0.04044665205924335</v>
       </c>
       <c r="C47">
-        <v>-0.0001590231915468822</v>
+        <v>-0.002798632523033915</v>
       </c>
       <c r="D47">
-        <v>-0.06026817101596892</v>
+        <v>0.01257040601115196</v>
       </c>
       <c r="E47">
-        <v>0.03041018916795354</v>
+        <v>0.00685945690252011</v>
       </c>
       <c r="F47">
-        <v>-0.001438814584038686</v>
+        <v>0.01507766654807502</v>
       </c>
       <c r="G47">
-        <v>-0.004006704124329187</v>
+        <v>-0.007059025929383855</v>
       </c>
       <c r="H47">
-        <v>-0.02966016636924007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.02589279024024149</v>
+      </c>
+      <c r="I47">
+        <v>0.02787213755682817</v>
+      </c>
+      <c r="J47">
+        <v>0.04107067573509852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04185908723619074</v>
+        <v>-0.03878213153930488</v>
       </c>
       <c r="C48">
-        <v>0.001983140094133853</v>
+        <v>0.007137416386720102</v>
       </c>
       <c r="D48">
-        <v>-0.03275738487225779</v>
+        <v>-0.01212304152921892</v>
       </c>
       <c r="E48">
-        <v>0.03884969699986219</v>
+        <v>0.00934838232027637</v>
       </c>
       <c r="F48">
-        <v>-0.009302246384198899</v>
+        <v>-0.001600055896676058</v>
       </c>
       <c r="G48">
-        <v>-0.04790462562112544</v>
+        <v>-0.01349793477993687</v>
       </c>
       <c r="H48">
-        <v>-0.01057459639599249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05878996350566906</v>
+      </c>
+      <c r="I48">
+        <v>0.05135511081605006</v>
+      </c>
+      <c r="J48">
+        <v>0.03310312489205452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2392795070079481</v>
+        <v>-0.230265254501473</v>
       </c>
       <c r="C49">
-        <v>0.06513496618727328</v>
+        <v>0.004465914678879682</v>
       </c>
       <c r="D49">
-        <v>0.08361260062304482</v>
+        <v>0.07133226362473488</v>
       </c>
       <c r="E49">
-        <v>-0.03284721291740367</v>
+        <v>-0.02229475497408283</v>
       </c>
       <c r="F49">
-        <v>-0.1000748696281394</v>
+        <v>-0.0309711658426078</v>
       </c>
       <c r="G49">
-        <v>0.1305813863697797</v>
+        <v>0.06240247749058924</v>
       </c>
       <c r="H49">
-        <v>0.08643266676512036</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1513173727757947</v>
+      </c>
+      <c r="I49">
+        <v>-0.1656091940938627</v>
+      </c>
+      <c r="J49">
+        <v>-0.1630357576089718</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05602875631715327</v>
+        <v>-0.04251277407183685</v>
       </c>
       <c r="C50">
-        <v>0.01406269053371552</v>
+        <v>0.01360730204767245</v>
       </c>
       <c r="D50">
-        <v>-0.01363109559412169</v>
+        <v>0.02722048944489111</v>
       </c>
       <c r="E50">
-        <v>0.02611234439868691</v>
+        <v>0.01309515099237882</v>
       </c>
       <c r="F50">
-        <v>0.0433251417145821</v>
+        <v>-0.006663948884086453</v>
       </c>
       <c r="G50">
-        <v>-0.006480441033706538</v>
+        <v>0.004836523537656366</v>
       </c>
       <c r="H50">
-        <v>-0.05316373727862162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.05270401242884587</v>
+      </c>
+      <c r="I50">
+        <v>0.03428532785305332</v>
+      </c>
+      <c r="J50">
+        <v>0.03097087065023086</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03546162021141659</v>
+        <v>-0.01604166696488235</v>
       </c>
       <c r="C51">
-        <v>0.009579076434719391</v>
+        <v>-0.007646623034045641</v>
       </c>
       <c r="D51">
-        <v>-0.001448465913962513</v>
+        <v>0.002328805710812172</v>
       </c>
       <c r="E51">
-        <v>-0.02262511882320378</v>
+        <v>0.01795264131868123</v>
       </c>
       <c r="F51">
-        <v>0.0229145031593157</v>
+        <v>0.005194834273806797</v>
       </c>
       <c r="G51">
-        <v>0.01830574137538749</v>
+        <v>0.02192979878830816</v>
       </c>
       <c r="H51">
-        <v>0.04111092766161616</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02230681083683471</v>
+      </c>
+      <c r="I51">
+        <v>-0.003588578223005536</v>
+      </c>
+      <c r="J51">
+        <v>-0.005856699044094723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.09811102732280728</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.06885298449018752</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.02760300369701031</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02363725969417012</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02378076680590581</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.002069213585896591</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.07452813142256623</v>
+      </c>
+      <c r="I52">
+        <v>-0.03829863681631412</v>
+      </c>
+      <c r="J52">
+        <v>0.1044246295891922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1621821232688863</v>
+        <v>-0.1593238099691973</v>
       </c>
       <c r="C53">
-        <v>-0.007198683204796676</v>
+        <v>0.01099688344250407</v>
       </c>
       <c r="D53">
-        <v>0.07097294604078092</v>
+        <v>-0.007569597042395472</v>
       </c>
       <c r="E53">
-        <v>0.05174008154211972</v>
+        <v>-0.005065817291347955</v>
       </c>
       <c r="F53">
-        <v>0.2135411672690496</v>
+        <v>0.004450227635112327</v>
       </c>
       <c r="G53">
-        <v>0.02332634147831189</v>
+        <v>0.028628386227882</v>
       </c>
       <c r="H53">
-        <v>-0.03460454574128898</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.01392528283647664</v>
+      </c>
+      <c r="I53">
+        <v>-0.1094989877643262</v>
+      </c>
+      <c r="J53">
+        <v>0.1767715286100909</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05502516492338381</v>
+        <v>-0.0506810454967089</v>
       </c>
       <c r="C54">
-        <v>0.006246885580034316</v>
+        <v>0.01518388932831756</v>
       </c>
       <c r="D54">
-        <v>-0.03949056868919246</v>
+        <v>0.01482895069182987</v>
       </c>
       <c r="E54">
-        <v>-0.004270639397105725</v>
+        <v>0.01735876013879348</v>
       </c>
       <c r="F54">
-        <v>0.01757739176227091</v>
+        <v>0.021523243494917</v>
       </c>
       <c r="G54">
-        <v>-0.05262109553944393</v>
+        <v>-0.006266019159299459</v>
       </c>
       <c r="H54">
-        <v>-0.102037480897121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.06450050209342933</v>
+      </c>
+      <c r="I54">
+        <v>0.1353404947282278</v>
+      </c>
+      <c r="J54">
+        <v>0.05354829851563661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09647685722594672</v>
+        <v>-0.08975979029309882</v>
       </c>
       <c r="C55">
-        <v>0.006963242602749834</v>
+        <v>0.02313970599128251</v>
       </c>
       <c r="D55">
-        <v>0.01587091778820544</v>
+        <v>-0.01939818938359357</v>
       </c>
       <c r="E55">
-        <v>0.03269629803370733</v>
+        <v>0.03876415473131617</v>
       </c>
       <c r="F55">
-        <v>0.1551563254294553</v>
+        <v>-0.02295603193150795</v>
       </c>
       <c r="G55">
-        <v>-0.01820636770862315</v>
+        <v>0.007572710086139136</v>
       </c>
       <c r="H55">
-        <v>-0.0617210817803877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.01414811586483076</v>
+      </c>
+      <c r="I55">
+        <v>-0.01922042461598083</v>
+      </c>
+      <c r="J55">
+        <v>0.1264399878204093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1630723136675822</v>
+        <v>-0.1620308739033184</v>
       </c>
       <c r="C56">
-        <v>-0.008207474525990913</v>
+        <v>0.02908334725105904</v>
       </c>
       <c r="D56">
-        <v>0.08433618122863074</v>
+        <v>0.01056593107634903</v>
       </c>
       <c r="E56">
-        <v>0.08320143904864891</v>
+        <v>0.02200764741588659</v>
       </c>
       <c r="F56">
-        <v>0.2062109781937269</v>
+        <v>-0.02703674458793348</v>
       </c>
       <c r="G56">
-        <v>0.008956719526103114</v>
+        <v>0.02790168529961958</v>
       </c>
       <c r="H56">
-        <v>-0.04500762005696621</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.03883083186894409</v>
+      </c>
+      <c r="I56">
+        <v>-0.06127465159614291</v>
+      </c>
+      <c r="J56">
+        <v>0.1427759580535763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01844551795538905</v>
+        <v>-0.03444448800875805</v>
       </c>
       <c r="C58">
-        <v>0.08296905434923676</v>
+        <v>0.01032486325844332</v>
       </c>
       <c r="D58">
-        <v>-0.2287620958537361</v>
+        <v>0.01832809086021916</v>
       </c>
       <c r="E58">
-        <v>0.04053872850500484</v>
+        <v>0.01201834796689726</v>
       </c>
       <c r="F58">
-        <v>-0.409820589439679</v>
+        <v>0.08078576122328683</v>
       </c>
       <c r="G58">
-        <v>-0.08887902821030343</v>
+        <v>-0.003962415541248174</v>
       </c>
       <c r="H58">
-        <v>0.1202356590612668</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.103686799964984</v>
+      </c>
+      <c r="I58">
+        <v>-0.009931178588148713</v>
+      </c>
+      <c r="J58">
+        <v>0.004738622718767402</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1486539988157364</v>
+        <v>-0.1556863049574154</v>
       </c>
       <c r="C59">
-        <v>-0.3843463630203582</v>
+        <v>-0.2959899346924659</v>
       </c>
       <c r="D59">
-        <v>0.03731169915918565</v>
+        <v>-0.09144529010203056</v>
       </c>
       <c r="E59">
-        <v>-0.05712125313867191</v>
+        <v>0.02583103048421101</v>
       </c>
       <c r="F59">
-        <v>0.04985317316523125</v>
+        <v>-0.05177263881401398</v>
       </c>
       <c r="G59">
-        <v>-0.01980952426512171</v>
+        <v>0.03012341878249467</v>
       </c>
       <c r="H59">
-        <v>0.03722799438856267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.06659492228416347</v>
+      </c>
+      <c r="I59">
+        <v>0.04112301346572218</v>
+      </c>
+      <c r="J59">
+        <v>0.0172085063655697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2767278629533327</v>
+        <v>-0.2835900193619096</v>
       </c>
       <c r="C60">
-        <v>0.05029462235508728</v>
+        <v>0.0939051156356544</v>
       </c>
       <c r="D60">
-        <v>0.05351396604743339</v>
+        <v>0.02239274454739748</v>
       </c>
       <c r="E60">
-        <v>-0.04888320204316171</v>
+        <v>-0.08096063667010669</v>
       </c>
       <c r="F60">
-        <v>-0.05441552242407063</v>
+        <v>-0.01145446098059085</v>
       </c>
       <c r="G60">
-        <v>0.1519124071603332</v>
+        <v>0.1187044646775109</v>
       </c>
       <c r="H60">
-        <v>0.0410795673510606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.157269250958317</v>
+      </c>
+      <c r="I60">
+        <v>-0.1797167955647313</v>
+      </c>
+      <c r="J60">
+        <v>-0.3399987406314569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09449812940993209</v>
+        <v>-0.1106197871163251</v>
       </c>
       <c r="C61">
-        <v>0.02130429721702748</v>
+        <v>0.0637029845040461</v>
       </c>
       <c r="D61">
-        <v>-0.02434845800088399</v>
+        <v>0.0006430627438375843</v>
       </c>
       <c r="E61">
-        <v>-0.00894282729534176</v>
+        <v>0.04132969713972035</v>
       </c>
       <c r="F61">
-        <v>0.02814215451525949</v>
+        <v>-0.0756798717612872</v>
       </c>
       <c r="G61">
-        <v>-0.06327515793230064</v>
+        <v>0.02446183392785702</v>
       </c>
       <c r="H61">
-        <v>0.05226807649678789</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.125408557079571</v>
+      </c>
+      <c r="I61">
+        <v>0.126620948387188</v>
+      </c>
+      <c r="J61">
+        <v>0.07117980758503425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1439425742224111</v>
+        <v>-0.1596294612929815</v>
       </c>
       <c r="C62">
-        <v>0.02395804760924378</v>
+        <v>0.0298193438901088</v>
       </c>
       <c r="D62">
-        <v>0.1373588931227372</v>
+        <v>0.004006691443881961</v>
       </c>
       <c r="E62">
-        <v>0.07486720863353107</v>
+        <v>0.004194258204208348</v>
       </c>
       <c r="F62">
-        <v>0.1723743594502496</v>
+        <v>-0.023807596619111</v>
       </c>
       <c r="G62">
-        <v>-0.002895289978345272</v>
+        <v>0.002276209939549171</v>
       </c>
       <c r="H62">
-        <v>-0.06126561960868846</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.01058311035040962</v>
+      </c>
+      <c r="I62">
+        <v>-0.09447116920823211</v>
+      </c>
+      <c r="J62">
+        <v>0.1314315787899874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04353254282805479</v>
+        <v>-0.04200788409070252</v>
       </c>
       <c r="C63">
-        <v>0.01758726297916197</v>
+        <v>0.008209934363680723</v>
       </c>
       <c r="D63">
-        <v>-0.004103465722700235</v>
+        <v>-0.005068523234403534</v>
       </c>
       <c r="E63">
-        <v>0.01862910531998443</v>
+        <v>0.02207511222120492</v>
       </c>
       <c r="F63">
-        <v>0.008883646786424733</v>
+        <v>-0.007258813757584892</v>
       </c>
       <c r="G63">
-        <v>-0.0399497183257024</v>
+        <v>-0.03882472915568307</v>
       </c>
       <c r="H63">
-        <v>-0.1010600992848438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.0449055997039695</v>
+      </c>
+      <c r="I63">
+        <v>0.06270844468759355</v>
+      </c>
+      <c r="J63">
+        <v>0.03904330807500853</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1109835011588921</v>
+        <v>-0.09884790650789638</v>
       </c>
       <c r="C64">
-        <v>0.01056803325208723</v>
+        <v>0.0148623080809186</v>
       </c>
       <c r="D64">
-        <v>-0.05102890327261456</v>
+        <v>0.01535954264499494</v>
       </c>
       <c r="E64">
-        <v>-0.02623176421694895</v>
+        <v>0.002787333270622984</v>
       </c>
       <c r="F64">
-        <v>-0.00360587782445803</v>
+        <v>0.001871462296699598</v>
       </c>
       <c r="G64">
-        <v>-0.04669738391786751</v>
+        <v>0.05518055688494854</v>
       </c>
       <c r="H64">
-        <v>-0.003550712695139454</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.04400035486665838</v>
+      </c>
+      <c r="I64">
+        <v>0.04617504711492384</v>
+      </c>
+      <c r="J64">
+        <v>-0.06139862297542405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1111303834820558</v>
+        <v>-0.1180415817403979</v>
       </c>
       <c r="C65">
-        <v>0.02723623035943222</v>
+        <v>0.006858300378683651</v>
       </c>
       <c r="D65">
-        <v>-0.05601429892973746</v>
+        <v>-0.01905805837750249</v>
       </c>
       <c r="E65">
-        <v>-0.002649758651902894</v>
+        <v>-0.01425917896767264</v>
       </c>
       <c r="F65">
-        <v>-0.3120735288381991</v>
+        <v>0.00712108967474044</v>
       </c>
       <c r="G65">
-        <v>0.1474801857289295</v>
+        <v>-0.07251823527331165</v>
       </c>
       <c r="H65">
-        <v>-0.6377869408123629</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.01264268143466874</v>
+      </c>
+      <c r="I65">
+        <v>0.02227382151155172</v>
+      </c>
+      <c r="J65">
+        <v>-0.2524510600721305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1569556601020056</v>
+        <v>-0.1647912539671466</v>
       </c>
       <c r="C66">
-        <v>0.04901246212540887</v>
+        <v>0.1106670646225363</v>
       </c>
       <c r="D66">
-        <v>-0.03388133564349376</v>
+        <v>0.04759043764554952</v>
       </c>
       <c r="E66">
-        <v>-0.05176817855610471</v>
+        <v>0.05354908254145472</v>
       </c>
       <c r="F66">
-        <v>0.03245268696604318</v>
+        <v>-0.137585003556207</v>
       </c>
       <c r="G66">
-        <v>-0.2734819487687177</v>
+        <v>0.0321742696111477</v>
       </c>
       <c r="H66">
-        <v>0.2001643220211889</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1280548217434522</v>
+      </c>
+      <c r="I66">
+        <v>0.03707389871396171</v>
+      </c>
+      <c r="J66">
+        <v>0.005762513447988976</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1091155148711944</v>
+        <v>-0.07978324921503654</v>
       </c>
       <c r="C67">
-        <v>0.03458614596314163</v>
+        <v>0.03687828475253084</v>
       </c>
       <c r="D67">
-        <v>0.00340863125112831</v>
+        <v>-0.01099709649571581</v>
       </c>
       <c r="E67">
-        <v>-0.03699017766731035</v>
+        <v>0.07248940549222233</v>
       </c>
       <c r="F67">
-        <v>0.05640192272586133</v>
+        <v>0.007591503521020292</v>
       </c>
       <c r="G67">
-        <v>-0.03873971504516641</v>
+        <v>0.02856629909785536</v>
       </c>
       <c r="H67">
-        <v>0.0179687575605114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.08838394801620977</v>
+      </c>
+      <c r="I67">
+        <v>-0.02037937050576743</v>
+      </c>
+      <c r="J67">
+        <v>-0.02917681310786043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.03649442476060902</v>
+        <v>-0.06978667957257671</v>
       </c>
       <c r="C68">
-        <v>-0.2929122913882488</v>
+        <v>-0.2700172567502951</v>
       </c>
       <c r="D68">
-        <v>0.00551761390567757</v>
+        <v>-0.09726006852948609</v>
       </c>
       <c r="E68">
-        <v>0.0201910972444613</v>
+        <v>0.01148437115337403</v>
       </c>
       <c r="F68">
-        <v>-0.01189388292703544</v>
+        <v>-0.03484754201978687</v>
       </c>
       <c r="G68">
-        <v>0.01641329371083335</v>
+        <v>-0.01441208988450058</v>
       </c>
       <c r="H68">
-        <v>-0.02646129103485461</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04514641135640631</v>
+      </c>
+      <c r="I68">
+        <v>0.04680618779108085</v>
+      </c>
+      <c r="J68">
+        <v>-0.01498628404583689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05054610563833097</v>
+        <v>-0.03836135747363403</v>
       </c>
       <c r="C69">
-        <v>0.01181193398239769</v>
+        <v>0.004595490793271068</v>
       </c>
       <c r="D69">
-        <v>0.01073291560063409</v>
+        <v>-0.01061363634587271</v>
       </c>
       <c r="E69">
-        <v>0.03325482562784457</v>
+        <v>0.02399449419752882</v>
       </c>
       <c r="F69">
-        <v>-0.01629658883112901</v>
+        <v>-1.971230642041824e-05</v>
       </c>
       <c r="G69">
-        <v>-0.02101151718507761</v>
+        <v>0.001887799793630956</v>
       </c>
       <c r="H69">
-        <v>-0.01552605818999741</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01289923264574882</v>
+      </c>
+      <c r="I69">
+        <v>-0.0009198985136686287</v>
+      </c>
+      <c r="J69">
+        <v>0.02007608980589595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08230951376523389</v>
+        <v>-0.03779210872641013</v>
       </c>
       <c r="C70">
-        <v>0.01104667058509172</v>
+        <v>-0.005516441858996669</v>
       </c>
       <c r="D70">
-        <v>0.004692259881578129</v>
+        <v>-0.02167662776225277</v>
       </c>
       <c r="E70">
-        <v>-0.0631022759739655</v>
+        <v>0.02268344206185386</v>
       </c>
       <c r="F70">
-        <v>0.005341003791836688</v>
+        <v>-0.02558214145744281</v>
       </c>
       <c r="G70">
-        <v>0.03902809225589456</v>
+        <v>0.05566381110436919</v>
       </c>
       <c r="H70">
-        <v>0.006093524717119162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.0235354148458625</v>
+      </c>
+      <c r="I70">
+        <v>0.003335279282957927</v>
+      </c>
+      <c r="J70">
+        <v>0.02246659402837837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.0477313680461524</v>
+        <v>-0.0828560413607741</v>
       </c>
       <c r="C71">
-        <v>-0.3002640418676903</v>
+        <v>-0.2846872288744591</v>
       </c>
       <c r="D71">
-        <v>-0.002219000962838637</v>
+        <v>-0.1023827069744114</v>
       </c>
       <c r="E71">
-        <v>-0.0009648709559609744</v>
+        <v>0.01378525649287978</v>
       </c>
       <c r="F71">
-        <v>-0.01358827832054873</v>
+        <v>-0.02613737461478778</v>
       </c>
       <c r="G71">
-        <v>-0.009768766422775535</v>
+        <v>0.01199235084508839</v>
       </c>
       <c r="H71">
-        <v>-0.006690243918016521</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.04739272524825714</v>
+      </c>
+      <c r="I71">
+        <v>0.04167247023709591</v>
+      </c>
+      <c r="J71">
+        <v>-0.03565388997155858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1306179936313386</v>
+        <v>-0.1364768899899639</v>
       </c>
       <c r="C72">
-        <v>-0.02049241005570261</v>
+        <v>-0.02337553219906743</v>
       </c>
       <c r="D72">
-        <v>0.0862269257792804</v>
+        <v>0.01314844093608569</v>
       </c>
       <c r="E72">
-        <v>0.1121272716224578</v>
+        <v>0.01517845978426495</v>
       </c>
       <c r="F72">
-        <v>-0.03229076055357102</v>
+        <v>-0.01625837304270723</v>
       </c>
       <c r="G72">
-        <v>-0.08446755006894698</v>
+        <v>-0.04697307619253116</v>
       </c>
       <c r="H72">
-        <v>-0.1143666261972576</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.003916852682225337</v>
+      </c>
+      <c r="I72">
+        <v>0.003834099743532003</v>
+      </c>
+      <c r="J72">
+        <v>0.003438759387806963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2833709133198189</v>
+        <v>-0.2478369778100379</v>
       </c>
       <c r="C73">
-        <v>0.1460922980254522</v>
+        <v>0.06026449478258954</v>
       </c>
       <c r="D73">
-        <v>0.134451503203049</v>
+        <v>0.05551232282999103</v>
       </c>
       <c r="E73">
-        <v>-0.1207356059566818</v>
+        <v>0.03376965881286317</v>
       </c>
       <c r="F73">
-        <v>-0.2983753015841799</v>
+        <v>-0.08286595727589555</v>
       </c>
       <c r="G73">
-        <v>0.2880921868436287</v>
+        <v>0.1813226772371278</v>
       </c>
       <c r="H73">
-        <v>0.2227134549256013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2578152202861004</v>
+      </c>
+      <c r="I73">
+        <v>-0.3168465320588438</v>
+      </c>
+      <c r="J73">
+        <v>-0.2018689527216008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1003296060415737</v>
+        <v>-0.109261534065441</v>
       </c>
       <c r="C74">
-        <v>0.03149724377997584</v>
+        <v>0.02558403038650382</v>
       </c>
       <c r="D74">
-        <v>0.02770194091125043</v>
+        <v>0.02921423817583868</v>
       </c>
       <c r="E74">
-        <v>0.01912838341076795</v>
+        <v>0.02838996965968873</v>
       </c>
       <c r="F74">
-        <v>0.1056057203067077</v>
+        <v>-0.007620889573680313</v>
       </c>
       <c r="G74">
-        <v>0.0256685575226712</v>
+        <v>0.00970841072715771</v>
       </c>
       <c r="H74">
-        <v>-0.02310331304922117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.05186767324154581</v>
+      </c>
+      <c r="I74">
+        <v>-0.08197995311336444</v>
+      </c>
+      <c r="J74">
+        <v>0.1120352352567936</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09335926691143076</v>
+        <v>-0.1172166475050763</v>
       </c>
       <c r="C75">
-        <v>0.01851741292625985</v>
+        <v>0.03460076205256297</v>
       </c>
       <c r="D75">
-        <v>0.05393707977010966</v>
+        <v>0.02261205327315875</v>
       </c>
       <c r="E75">
-        <v>0.07103925616280658</v>
+        <v>0.0163227215689729</v>
       </c>
       <c r="F75">
-        <v>0.08589777036879578</v>
+        <v>-0.005095855644065428</v>
       </c>
       <c r="G75">
-        <v>0.0416779990192736</v>
+        <v>-0.02242280016150754</v>
       </c>
       <c r="H75">
-        <v>-0.01255452512492146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.0001728765911835135</v>
+      </c>
+      <c r="I75">
+        <v>-0.04307545962452163</v>
+      </c>
+      <c r="J75">
+        <v>0.1273416808050166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1405288932762362</v>
+        <v>-0.0466877714718412</v>
       </c>
       <c r="C76">
-        <v>0.0240966733112051</v>
+        <v>0.0008857586537584549</v>
       </c>
       <c r="D76">
-        <v>0.01677417933591057</v>
+        <v>0.01273231020515807</v>
       </c>
       <c r="E76">
-        <v>0.06171337101694472</v>
+        <v>0.03573834022242449</v>
       </c>
       <c r="F76">
-        <v>0.2309444627331375</v>
+        <v>0.007709141578946087</v>
       </c>
       <c r="G76">
-        <v>0.07002966158702628</v>
+        <v>0.02897783535038518</v>
       </c>
       <c r="H76">
-        <v>-0.0311334469468517</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04140326232617518</v>
+      </c>
+      <c r="I76">
+        <v>-0.03029594301609694</v>
+      </c>
+      <c r="J76">
+        <v>0.09544094404494211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.08057005004944814</v>
+        <v>-0.08287122141397422</v>
       </c>
       <c r="C77">
-        <v>-0.007504971603018622</v>
+        <v>0.07629129635853897</v>
       </c>
       <c r="D77">
-        <v>-0.1239494731758697</v>
+        <v>0.01739935935250196</v>
       </c>
       <c r="E77">
-        <v>-0.114929471653026</v>
+        <v>-0.006910362558425997</v>
       </c>
       <c r="F77">
-        <v>-0.2363352976648776</v>
+        <v>0.01142796880578315</v>
       </c>
       <c r="G77">
-        <v>-0.1482561590363498</v>
+        <v>0.04866925983970958</v>
       </c>
       <c r="H77">
-        <v>0.1250448373209534</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.03564122612165364</v>
+      </c>
+      <c r="I77">
+        <v>0.2134119588708013</v>
+      </c>
+      <c r="J77">
+        <v>-0.3799925361207356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2290286022582077</v>
+        <v>-0.1327142894288117</v>
       </c>
       <c r="C78">
-        <v>0.04808610982994939</v>
+        <v>-0.009481003616168831</v>
       </c>
       <c r="D78">
-        <v>-0.2201374851181337</v>
+        <v>0.1638331560624317</v>
       </c>
       <c r="E78">
-        <v>-0.03834557739145224</v>
+        <v>0.2030434906690916</v>
       </c>
       <c r="F78">
-        <v>-0.02529723721824865</v>
+        <v>0.2619338363963519</v>
       </c>
       <c r="G78">
-        <v>-0.1360539260289443</v>
+        <v>-0.1336834617445536</v>
       </c>
       <c r="H78">
-        <v>-0.09726607163749722</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.6514273758825229</v>
+      </c>
+      <c r="I78">
+        <v>0.5155659147528</v>
+      </c>
+      <c r="J78">
+        <v>0.15353299194869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1368891042646626</v>
+        <v>-0.1411362076892343</v>
       </c>
       <c r="C79">
-        <v>0.005961188121798779</v>
+        <v>0.02525070180846492</v>
       </c>
       <c r="D79">
-        <v>0.03692987978544408</v>
+        <v>0.04424425226578358</v>
       </c>
       <c r="E79">
-        <v>0.04785337945228307</v>
+        <v>0.005623710567370607</v>
       </c>
       <c r="F79">
-        <v>0.1280214819494067</v>
+        <v>-0.01803343540145805</v>
       </c>
       <c r="G79">
-        <v>-0.0171964223682044</v>
+        <v>0.01609649468486619</v>
       </c>
       <c r="H79">
-        <v>-0.05387321905852266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.04971856779140557</v>
+      </c>
+      <c r="I79">
+        <v>-0.06344517836796722</v>
+      </c>
+      <c r="J79">
+        <v>0.09148702431067239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03484500973146244</v>
+        <v>-0.07222837179897341</v>
       </c>
       <c r="C80">
-        <v>0.005549032982961437</v>
+        <v>0.06020797196914977</v>
       </c>
       <c r="D80">
-        <v>0.02663846148951898</v>
+        <v>-0.008194418050131526</v>
       </c>
       <c r="E80">
-        <v>-0.05385108317880419</v>
+        <v>0.02993183515953024</v>
       </c>
       <c r="F80">
-        <v>-0.01312172301753714</v>
+        <v>-0.05688418686902277</v>
       </c>
       <c r="G80">
-        <v>-0.05124909696120865</v>
+        <v>0.001559519872524739</v>
       </c>
       <c r="H80">
-        <v>-0.1260088425164808</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.03046319582974171</v>
+      </c>
+      <c r="I80">
+        <v>0.06290154232699596</v>
+      </c>
+      <c r="J80">
+        <v>0.1963029444330056</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1113512956706374</v>
+        <v>-0.1373853939540844</v>
       </c>
       <c r="C81">
-        <v>-0.001495770112602219</v>
+        <v>0.03325137132802688</v>
       </c>
       <c r="D81">
-        <v>0.02329249584364647</v>
+        <v>0.03346295959882721</v>
       </c>
       <c r="E81">
-        <v>0.03151540224061532</v>
+        <v>0.02123830853306969</v>
       </c>
       <c r="F81">
-        <v>0.1291757301137575</v>
+        <v>-0.004320715196962498</v>
       </c>
       <c r="G81">
-        <v>0.02495981212895748</v>
+        <v>0.007776300332759892</v>
       </c>
       <c r="H81">
-        <v>0.01183458437003566</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.04738737249607707</v>
+      </c>
+      <c r="I81">
+        <v>-0.02597246259605243</v>
+      </c>
+      <c r="J81">
+        <v>0.1545142694904335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1138717620475182</v>
+        <v>-0.1565965655684775</v>
       </c>
       <c r="C82">
-        <v>0.0195250139093195</v>
+        <v>0.04456637548754518</v>
       </c>
       <c r="D82">
-        <v>0.03801848308503702</v>
+        <v>-0.003469878401290498</v>
       </c>
       <c r="E82">
-        <v>-0.03705743827285989</v>
+        <v>0.008390864205142689</v>
       </c>
       <c r="F82">
-        <v>0.2554536973408889</v>
+        <v>-0.04483868454402447</v>
       </c>
       <c r="G82">
-        <v>-0.01121535627393415</v>
+        <v>0.04703347772095613</v>
       </c>
       <c r="H82">
-        <v>-0.02855168734587003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.05151057395091432</v>
+      </c>
+      <c r="I82">
+        <v>-0.1091860602934593</v>
+      </c>
+      <c r="J82">
+        <v>0.2091451791755878</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1133275370423454</v>
+        <v>-0.08876180264527173</v>
       </c>
       <c r="C83">
-        <v>0.04438678001354322</v>
+        <v>0.05375979956999113</v>
       </c>
       <c r="D83">
-        <v>-0.002788045956554741</v>
+        <v>0.01047292666640192</v>
       </c>
       <c r="E83">
-        <v>-0.09791694410489138</v>
+        <v>-0.02963040235633914</v>
       </c>
       <c r="F83">
-        <v>-0.04292093703257321</v>
+        <v>0.03352432770542332</v>
       </c>
       <c r="G83">
-        <v>-0.05877347503033792</v>
+        <v>-0.01137900905567558</v>
       </c>
       <c r="H83">
-        <v>0.0817908663197823</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.01968784311126826</v>
+      </c>
+      <c r="I83">
+        <v>0.08406215629397604</v>
+      </c>
+      <c r="J83">
+        <v>0.06041098170045957</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.05043166923343075</v>
+        <v>-0.06491260265766968</v>
       </c>
       <c r="C84">
-        <v>0.02530768347357041</v>
+        <v>0.01183209185070899</v>
       </c>
       <c r="D84">
-        <v>-0.01453033415406858</v>
+        <v>-0.009744441125744978</v>
       </c>
       <c r="E84">
-        <v>0.0571301693155595</v>
+        <v>-0.02361618268414415</v>
       </c>
       <c r="F84">
-        <v>0.05549540632033139</v>
+        <v>-0.03910172553073622</v>
       </c>
       <c r="G84">
-        <v>0.04194373740874809</v>
+        <v>0.03520912541915793</v>
       </c>
       <c r="H84">
-        <v>-0.003203234760982961</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.01878268018878165</v>
+      </c>
+      <c r="I84">
+        <v>0.02129116227806366</v>
+      </c>
+      <c r="J84">
+        <v>-0.01953004260685759</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1075783773277818</v>
+        <v>-0.1254947762984086</v>
       </c>
       <c r="C85">
-        <v>0.01324683312520616</v>
+        <v>0.02162068360327715</v>
       </c>
       <c r="D85">
-        <v>0.04717167041036321</v>
+        <v>0.01785464602523356</v>
       </c>
       <c r="E85">
-        <v>0.07735739928063481</v>
+        <v>0.01307603595242176</v>
       </c>
       <c r="F85">
-        <v>0.142561166563984</v>
+        <v>-0.009069203335986636</v>
       </c>
       <c r="G85">
-        <v>-0.02610250948532853</v>
+        <v>0.01481096465543714</v>
       </c>
       <c r="H85">
-        <v>-0.08517739499076171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.03180126658768962</v>
+      </c>
+      <c r="I85">
+        <v>-0.03654261766448558</v>
+      </c>
+      <c r="J85">
+        <v>0.1220176145575818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06907369482535361</v>
+        <v>-0.1207435910856326</v>
       </c>
       <c r="C86">
-        <v>0.01866383336718838</v>
+        <v>-0.07066780181292732</v>
       </c>
       <c r="D86">
-        <v>-0.09299112748087526</v>
+        <v>0.326168486013413</v>
       </c>
       <c r="E86">
-        <v>-0.1003332523863206</v>
+        <v>-0.8732828569668321</v>
       </c>
       <c r="F86">
-        <v>0.03822010720447396</v>
+        <v>0.1792477381005729</v>
       </c>
       <c r="G86">
-        <v>-0.02853345027800227</v>
+        <v>-0.07501014063482375</v>
       </c>
       <c r="H86">
-        <v>-0.2836706212844494</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.06406060056128239</v>
+      </c>
+      <c r="I86">
+        <v>0.122369157969224</v>
+      </c>
+      <c r="J86">
+        <v>0.04982641369762434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1085159093194378</v>
+        <v>-0.1133381400592157</v>
       </c>
       <c r="C87">
-        <v>0.0551098152293683</v>
+        <v>0.1002517216092056</v>
       </c>
       <c r="D87">
-        <v>-0.06428440031357693</v>
+        <v>-0.05048385313562787</v>
       </c>
       <c r="E87">
-        <v>-0.01997585912917186</v>
+        <v>0.009411244041718702</v>
       </c>
       <c r="F87">
-        <v>-0.02237784391752304</v>
+        <v>0.03350739236755873</v>
       </c>
       <c r="G87">
-        <v>-0.1191148594853628</v>
+        <v>0.03183069971378012</v>
       </c>
       <c r="H87">
-        <v>-0.007099262057174193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.0002549335311825017</v>
+      </c>
+      <c r="I87">
+        <v>0.2546138146608974</v>
+      </c>
+      <c r="J87">
+        <v>-0.2153924848834144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07124847288463615</v>
+        <v>-0.05413784066478816</v>
       </c>
       <c r="C88">
-        <v>0.04154736304160739</v>
+        <v>0.02548929706483449</v>
       </c>
       <c r="D88">
-        <v>-0.02300576268332072</v>
+        <v>0.02894016252022592</v>
       </c>
       <c r="E88">
-        <v>-0.02203713843054528</v>
+        <v>0.03043824674435092</v>
       </c>
       <c r="F88">
-        <v>0.02438620029499332</v>
+        <v>-0.05217297861401675</v>
       </c>
       <c r="G88">
-        <v>-0.0490180830339622</v>
+        <v>0.01579407522597104</v>
       </c>
       <c r="H88">
-        <v>0.01583222280419964</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02914626759384664</v>
+      </c>
+      <c r="I88">
+        <v>0.03630447795278556</v>
+      </c>
+      <c r="J88">
+        <v>0.05223552315527135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09218578341408247</v>
+        <v>-0.1319359121846632</v>
       </c>
       <c r="C89">
-        <v>-0.3862498838899862</v>
+        <v>-0.363801400429604</v>
       </c>
       <c r="D89">
-        <v>-0.04354273617574667</v>
+        <v>-0.1185993549671667</v>
       </c>
       <c r="E89">
-        <v>-0.05218478439593918</v>
+        <v>0.008010385668390949</v>
       </c>
       <c r="F89">
-        <v>-0.02431794245391925</v>
+        <v>0.03701736258195448</v>
       </c>
       <c r="G89">
-        <v>0.005317804260797145</v>
+        <v>0.04643149694173725</v>
       </c>
       <c r="H89">
-        <v>0.01619370827891217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.001685541864366144</v>
+      </c>
+      <c r="I89">
+        <v>0.0258153022115522</v>
+      </c>
+      <c r="J89">
+        <v>-0.01193801485407236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07264938813753465</v>
+        <v>-0.09875503337813001</v>
       </c>
       <c r="C90">
-        <v>-0.2927231394649287</v>
+        <v>-0.2805735605404939</v>
       </c>
       <c r="D90">
-        <v>-0.05623212776022968</v>
+        <v>-0.09217747517156701</v>
       </c>
       <c r="E90">
-        <v>-0.01487959526282737</v>
+        <v>0.0007921954060735593</v>
       </c>
       <c r="F90">
-        <v>-0.04151949165539022</v>
+        <v>-0.02811434214208442</v>
       </c>
       <c r="G90">
-        <v>-0.03117620898504274</v>
+        <v>0.02268252271362802</v>
       </c>
       <c r="H90">
-        <v>0.03705730356203582</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06521168912565901</v>
+      </c>
+      <c r="I90">
+        <v>0.04247809825464983</v>
+      </c>
+      <c r="J90">
+        <v>-0.05197774974607855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08114262052527034</v>
+        <v>-0.08652145051702727</v>
       </c>
       <c r="C91">
-        <v>0.01962394272873292</v>
+        <v>0.02297108447107129</v>
       </c>
       <c r="D91">
-        <v>0.02304974030593591</v>
+        <v>0.02241268887690436</v>
       </c>
       <c r="E91">
-        <v>0.01927250477582913</v>
+        <v>-0.008887892908924043</v>
       </c>
       <c r="F91">
-        <v>0.07570561240506735</v>
+        <v>0.002244708245745747</v>
       </c>
       <c r="G91">
-        <v>0.06184456090984131</v>
+        <v>0.02498370015282481</v>
       </c>
       <c r="H91">
-        <v>0.02925969548211589</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.007045724248988771</v>
+      </c>
+      <c r="I91">
+        <v>-0.05002437072635592</v>
+      </c>
+      <c r="J91">
+        <v>0.07903861953669726</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06441910692731702</v>
+        <v>-0.1116048175176247</v>
       </c>
       <c r="C92">
-        <v>-0.3571820575757482</v>
+        <v>-0.3153226355051946</v>
       </c>
       <c r="D92">
-        <v>-0.03661587439871827</v>
+        <v>-0.1261326312034177</v>
       </c>
       <c r="E92">
-        <v>-0.01766173559959834</v>
+        <v>-0.0005412607514702156</v>
       </c>
       <c r="F92">
-        <v>-0.05711925646520848</v>
+        <v>0.01513117282650027</v>
       </c>
       <c r="G92">
-        <v>0.01022306079699245</v>
+        <v>0.001677476409546339</v>
       </c>
       <c r="H92">
-        <v>0.02209310482664223</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.05979501916035811</v>
+      </c>
+      <c r="I92">
+        <v>0.05225595169971101</v>
+      </c>
+      <c r="J92">
+        <v>0.0260565864014228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08042821908397754</v>
+        <v>-0.1005226861187034</v>
       </c>
       <c r="C93">
-        <v>-0.303780523992215</v>
+        <v>-0.3073754413011348</v>
       </c>
       <c r="D93">
-        <v>-0.02179451927780594</v>
+        <v>-0.09931384509153476</v>
       </c>
       <c r="E93">
-        <v>-0.002866057472176383</v>
+        <v>-0.01215887134433003</v>
       </c>
       <c r="F93">
-        <v>-0.0301530505322813</v>
+        <v>-0.04784006055668731</v>
       </c>
       <c r="G93">
-        <v>0.02850392028529748</v>
+        <v>0.02949341914351369</v>
       </c>
       <c r="H93">
-        <v>-0.00800186628258893</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.04006580728015521</v>
+      </c>
+      <c r="I93">
+        <v>0.03744666195199548</v>
+      </c>
+      <c r="J93">
+        <v>-0.02398436743570377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09254550041484512</v>
+        <v>-0.1342052032116873</v>
       </c>
       <c r="C94">
-        <v>0.04233193282951711</v>
+        <v>0.03437679702853319</v>
       </c>
       <c r="D94">
-        <v>0.02156382288522419</v>
+        <v>0.02330805240403034</v>
       </c>
       <c r="E94">
-        <v>0.04866687301233618</v>
+        <v>0.04814017106243274</v>
       </c>
       <c r="F94">
-        <v>0.1216561920670576</v>
+        <v>0.008654331436779737</v>
       </c>
       <c r="G94">
-        <v>0.04811584449767276</v>
+        <v>0.007866959616323414</v>
       </c>
       <c r="H94">
-        <v>-0.03218036497049683</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.007407158743396239</v>
+      </c>
+      <c r="I94">
+        <v>-0.07507424281946419</v>
+      </c>
+      <c r="J94">
+        <v>0.1045116727469726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1298859023338605</v>
+        <v>-0.1200398470273872</v>
       </c>
       <c r="C95">
-        <v>0.07789534544678067</v>
+        <v>0.05127454458891462</v>
       </c>
       <c r="D95">
-        <v>-0.09290709720777177</v>
+        <v>0.03785206074166248</v>
       </c>
       <c r="E95">
-        <v>-0.08263227143224434</v>
+        <v>0.03481937845131843</v>
       </c>
       <c r="F95">
-        <v>-0.07048101314221633</v>
+        <v>0.02589629279349645</v>
       </c>
       <c r="G95">
-        <v>-0.1083489068949734</v>
+        <v>0.04129401257058848</v>
       </c>
       <c r="H95">
-        <v>-0.08365211058312645</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.04161269441931093</v>
+      </c>
+      <c r="I95">
+        <v>0.1202581299932151</v>
+      </c>
+      <c r="J95">
+        <v>-0.02130105396187528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.0113353218089828</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001034430413210204</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0006582060058798747</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005292752757392628</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.006904871827236091</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.004235545851663186</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.003279078765022988</v>
+      </c>
+      <c r="I96">
+        <v>0.0290356487067348</v>
+      </c>
+      <c r="J96">
+        <v>-0.01696930203591229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1469604147488427</v>
+        <v>-0.1679859274129844</v>
       </c>
       <c r="C97">
-        <v>-0.04119048907312178</v>
+        <v>-0.01552467809414215</v>
       </c>
       <c r="D97">
-        <v>0.2543201522746119</v>
+        <v>0.03611932694232916</v>
       </c>
       <c r="E97">
-        <v>0.81738918974022</v>
+        <v>0.1072847583368571</v>
       </c>
       <c r="F97">
-        <v>-0.254411810260037</v>
+        <v>0.03152257477430263</v>
       </c>
       <c r="G97">
-        <v>-0.1541119453839873</v>
+        <v>-0.9163387506352065</v>
       </c>
       <c r="H97">
-        <v>0.02237271224660117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.08760871824910282</v>
+      </c>
+      <c r="I97">
+        <v>-0.1886598313308343</v>
+      </c>
+      <c r="J97">
+        <v>-0.09581756015973238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.32765535896256</v>
+        <v>-0.2741452462449268</v>
       </c>
       <c r="C98">
-        <v>0.05138068247267373</v>
+        <v>0.02368821189518222</v>
       </c>
       <c r="D98">
-        <v>0.2176442119100838</v>
+        <v>-0.02987851412880548</v>
       </c>
       <c r="E98">
-        <v>-0.1690270836119573</v>
+        <v>-0.09955476718326599</v>
       </c>
       <c r="F98">
-        <v>-0.0882194718054217</v>
+        <v>0.06313691961908417</v>
       </c>
       <c r="G98">
-        <v>0.3343719818046371</v>
+        <v>0.03017082339162259</v>
       </c>
       <c r="H98">
-        <v>0.2164304387069187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.2793248561661114</v>
+      </c>
+      <c r="I98">
+        <v>-0.2432293940728535</v>
+      </c>
+      <c r="J98">
+        <v>0.152382563982764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08900847779565728</v>
+        <v>-0.05892041253121641</v>
       </c>
       <c r="C99">
-        <v>0.02044488461973486</v>
+        <v>0.0003590464234032513</v>
       </c>
       <c r="D99">
-        <v>0.007027055299717792</v>
+        <v>0.02146384140176589</v>
       </c>
       <c r="E99">
-        <v>-0.004252808950281104</v>
+        <v>0.04468952157820951</v>
       </c>
       <c r="F99">
-        <v>-0.01591081995099792</v>
+        <v>0.008893680118129797</v>
       </c>
       <c r="G99">
-        <v>-0.02411822631332251</v>
+        <v>0.01199402093346298</v>
       </c>
       <c r="H99">
-        <v>0.06645219235950235</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01671493186450377</v>
+      </c>
+      <c r="I99">
+        <v>-0.0211526239800514</v>
+      </c>
+      <c r="J99">
+        <v>0.01591268626000847</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.08728764858206731</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.3044848400737373</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8555477105545706</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2665896008614606</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.1199618185988552</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.08052467761708811</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.08978996807734266</v>
+      </c>
+      <c r="I100">
+        <v>0.08806105726184543</v>
+      </c>
+      <c r="J100">
+        <v>0.06103870904552444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.06000941280984329</v>
+        <v>-0.03560323905353217</v>
       </c>
       <c r="C101">
-        <v>0.0002041374071150023</v>
+        <v>0.01022038144332545</v>
       </c>
       <c r="D101">
-        <v>-0.04778797831433586</v>
+        <v>-0.004465763341030065</v>
       </c>
       <c r="E101">
-        <v>-0.0215024455247115</v>
+        <v>0.01044202378401942</v>
       </c>
       <c r="F101">
-        <v>0.0385484384365811</v>
+        <v>-0.01951864264414147</v>
       </c>
       <c r="G101">
-        <v>-0.03430325563182917</v>
+        <v>0.0282923816135184</v>
       </c>
       <c r="H101">
-        <v>-0.08679749618423926</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.07864052515571665</v>
+      </c>
+      <c r="I101">
+        <v>0.06945288220028184</v>
+      </c>
+      <c r="J101">
+        <v>0.06561312241613837</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
